--- a/data/Instances/InstancesS/outputS-7.xlsx
+++ b/data/Instances/InstancesS/outputS-7.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -463,27 +463,27 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -503,187 +503,187 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>57</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>66</t>
         </is>
       </c>
     </row>
@@ -696,9 +696,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -709,20 +707,14 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -748,22 +740,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -774,18 +766,14 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -795,9 +783,7 @@
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
@@ -813,7 +799,9 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>1</v>
+      </c>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
     </row>
@@ -828,10 +816,14 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -848,18 +840,14 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
@@ -871,7 +859,9 @@
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
@@ -931,7 +921,9 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>1</v>
+      </c>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
     </row>
@@ -941,28 +933,46 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -970,46 +980,70 @@
         <v>1</v>
       </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
+      <c r="AR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1</v>
+      </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -1020,20 +1054,14 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1045,9 +1073,7 @@
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -1061,40 +1087,60 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>1</v>
+      </c>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1102,70 +1148,92 @@
         <v>1</v>
       </c>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AG8" t="n">
+        <v>1</v>
+      </c>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
+      <c r="AR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1</v>
+      </c>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
+      <c r="AW8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1</v>
+      </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1177,9 +1245,7 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -1200,7 +1266,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1214,36 +1280,28 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>1</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
@@ -1258,122 +1316,72 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
+      <c r="AW10" t="n">
+        <v>1</v>
+      </c>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1</v>
-      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
         <v>1</v>
       </c>
       <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
     </row>
@@ -1386,96 +1394,50 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="n">
         <v>1</v>
       </c>
@@ -1485,103 +1447,63 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1</v>
-      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="n">
         <v>1</v>
       </c>
       <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
     </row>
@@ -1594,9 +1516,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1614,9 +1534,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>1</v>
-      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
@@ -1628,9 +1546,7 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -1651,39 +1567,35 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>1</v>
-      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -1706,7 +1618,9 @@
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
+      <c r="AT15" t="n">
+        <v>1</v>
+      </c>
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
@@ -1716,7 +1630,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1724,10 +1638,14 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1763,7 +1681,9 @@
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>1</v>
+      </c>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
@@ -1773,96 +1693,56 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="n">
         <v>1</v>
       </c>
@@ -1872,114 +1752,72 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1</v>
-      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1</v>
-      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="n">
         <v>1</v>
       </c>
       <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1987,7 +1825,9 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -2000,18 +1840,14 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
@@ -2030,7 +1866,9 @@
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
@@ -2040,143 +1878,213 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="n">
-        <v>1</v>
-      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
+      <c r="AI20" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1</v>
+      </c>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
+      <c r="AW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1</v>
+      </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
+      <c r="AB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
+      <c r="AM21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1</v>
+      </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1</v>
+      </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
+      <c r="AW21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1</v>
+      </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -2187,20 +2095,14 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="n">
-        <v>1</v>
-      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -2210,13 +2112,9 @@
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
@@ -2232,38 +2130,34 @@
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -2279,9 +2173,7 @@
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
@@ -2304,59 +2196,33 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="n">
-        <v>1</v>
-      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
@@ -2367,75 +2233,55 @@
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="n">
-        <v>1</v>
-      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -2445,13 +2291,9 @@
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
@@ -2462,7 +2304,9 @@
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
+      <c r="AT25" t="n">
+        <v>1</v>
+      </c>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
@@ -2472,96 +2316,136 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
+      <c r="AG26" t="n">
+        <v>1</v>
+      </c>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
+      <c r="AL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1</v>
+      </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
+      <c r="AR26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1</v>
+      </c>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="inlineStr"/>
+      <c r="AW26" t="n">
+        <v>1</v>
+      </c>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="n">
-        <v>1</v>
-      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -2584,7 +2468,9 @@
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
@@ -2594,44 +2480,62 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="n">
-        <v>1</v>
-      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
+      <c r="AC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1</v>
+      </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="n">
@@ -2640,34 +2544,48 @@
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
+      <c r="AK28" t="n">
+        <v>1</v>
+      </c>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
+      <c r="AN28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1</v>
+      </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
+      <c r="AW28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1</v>
+      </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2678,20 +2596,14 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="n">
-        <v>1</v>
-      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -2701,13 +2613,9 @@
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
@@ -2721,119 +2629,65 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="n">
-        <v>1</v>
-      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
@@ -2843,125 +2697,85 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1</v>
-      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="n">
-        <v>1</v>
-      </c>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="n">
         <v>1</v>
       </c>
       <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2974,9 +2788,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
-      <c r="W32" t="n">
-        <v>1</v>
-      </c>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -2986,9 +2798,7 @@
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
@@ -3001,19 +2811,19 @@
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
+      <c r="AT32" t="n">
+        <v>1</v>
+      </c>
       <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -3021,10 +2831,14 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -3060,7 +2874,9 @@
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
+      <c r="AT33" t="n">
+        <v>1</v>
+      </c>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
@@ -3070,329 +2886,321 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
       <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="Y34" t="n">
+        <v>1</v>
+      </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
       <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
+      <c r="AI34" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
+      <c r="AR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1</v>
+      </c>
       <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
+      <c r="AW34" t="n">
+        <v>1</v>
+      </c>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="n">
-        <v>1</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1</v>
-      </c>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>1</v>
+      </c>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="n">
+        <v>1</v>
+      </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1</v>
+      </c>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
+      <c r="AH36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
+      <c r="AM36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
+      <c r="AR36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
       <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
+      <c r="AW36" t="n">
+        <v>1</v>
+      </c>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1</v>
-      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="n">
-        <v>1</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1</v>
-      </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="n">
         <v>1</v>
       </c>
@@ -3402,118 +3210,76 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="n">
-        <v>1</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1</v>
-      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="n">
         <v>1</v>
       </c>
       <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -3525,17 +3291,13 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="n">
-        <v>1</v>
-      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -3545,13 +3307,9 @@
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
@@ -3565,46 +3323,44 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
-      <c r="AW39" t="inlineStr"/>
+      <c r="AW39" t="n">
+        <v>1</v>
+      </c>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="n">
-        <v>1</v>
-      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -3614,13 +3370,9 @@
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
@@ -3631,7 +3383,9 @@
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
+      <c r="AT40" t="n">
+        <v>1</v>
+      </c>
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
@@ -3641,7 +3395,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -3649,24 +3403,24 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="n">
-        <v>1</v>
-      </c>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
@@ -3680,9 +3434,7 @@
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
@@ -3694,7 +3446,9 @@
       <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
+      <c r="AT41" t="n">
+        <v>1</v>
+      </c>
       <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
@@ -3704,20 +3458,22 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -3730,9 +3486,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="n">
-        <v>1</v>
-      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
@@ -3755,7 +3509,9 @@
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="inlineStr"/>
+      <c r="AT42" t="n">
+        <v>1</v>
+      </c>
       <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
@@ -3765,37 +3521,35 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="n">
-        <v>1</v>
-      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
@@ -3807,9 +3561,7 @@
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
@@ -3820,7 +3572,9 @@
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
+      <c r="AT43" t="n">
+        <v>1</v>
+      </c>
       <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
@@ -3830,126 +3584,76 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1</v>
-      </c>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
       <c r="AT44" t="n">
         <v>1</v>
       </c>
       <c r="AU44" t="inlineStr"/>
-      <c r="AV44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -3960,20 +3664,14 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="n">
-        <v>1</v>
-      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
@@ -3983,9 +3681,7 @@
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
@@ -4001,24 +3697,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr"/>
       <c r="AV45" t="inlineStr"/>
-      <c r="AW45" t="inlineStr"/>
+      <c r="AW45" t="n">
+        <v>1</v>
+      </c>
       <c r="AX45" t="inlineStr"/>
-      <c r="AY45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -4030,17 +3724,13 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="n">
-        <v>1</v>
-      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
@@ -4050,9 +3740,7 @@
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
@@ -4070,38 +3758,56 @@
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
       <c r="Q47" t="n">
         <v>1</v>
       </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -4109,11 +3815,15 @@
         <v>1</v>
       </c>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+      <c r="Y47" t="n">
+        <v>1</v>
+      </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
+      <c r="AC47" t="n">
+        <v>1</v>
+      </c>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
@@ -4125,60 +3835,96 @@
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
-      <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="inlineStr"/>
+      <c r="AM47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1</v>
+      </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
+      <c r="AR47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
       <c r="AU47" t="inlineStr"/>
       <c r="AV47" t="inlineStr"/>
-      <c r="AW47" t="inlineStr"/>
+      <c r="AW47" t="n">
+        <v>1</v>
+      </c>
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="n">
-        <v>1</v>
-      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+      <c r="Y48" t="n">
+        <v>1</v>
+      </c>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
+      <c r="AB48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1</v>
+      </c>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
@@ -4187,14 +3933,28 @@
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
-      <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
+      <c r="AL48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
+      <c r="AR48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1</v>
+      </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
@@ -4205,104 +3965,140 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="n">
-        <v>1</v>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>1</v>
+      </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
+      <c r="AB49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1</v>
+      </c>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
+      <c r="AG49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr"/>
+      <c r="AM49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1</v>
+      </c>
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
-      <c r="AT49" t="inlineStr"/>
+      <c r="AR49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1</v>
+      </c>
       <c r="AU49" t="inlineStr"/>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
       <c r="AX49" t="inlineStr"/>
-      <c r="AY49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="n">
-        <v>1</v>
-      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
@@ -4312,9 +4108,7 @@
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
@@ -4327,7 +4121,9 @@
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
-      <c r="AT50" t="inlineStr"/>
+      <c r="AT50" t="n">
+        <v>1</v>
+      </c>
       <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="inlineStr"/>
       <c r="AW50" t="inlineStr"/>
@@ -4337,286 +4133,222 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
+      <c r="Y51" t="n">
+        <v>1</v>
+      </c>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
+      <c r="AB51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1</v>
+      </c>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
-      <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr"/>
-      <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
+      <c r="AL51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr"/>
-      <c r="AT51" t="inlineStr"/>
+      <c r="AR51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1</v>
+      </c>
       <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="inlineStr"/>
-      <c r="AW51" t="inlineStr"/>
+      <c r="AW51" t="n">
+        <v>1</v>
+      </c>
       <c r="AX51" t="inlineStr"/>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
         <v>1</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1</v>
-      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="n">
-        <v>1</v>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
       <c r="AT52" t="n">
         <v>1</v>
       </c>
       <c r="AU52" t="inlineStr"/>
-      <c r="AV52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1</v>
-      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="n">
-        <v>1</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>1</v>
-      </c>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
-      <c r="AT53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr"/>
-      <c r="AV53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="n">
         <v>1</v>
       </c>
@@ -4626,305 +4358,175 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1</v>
-      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="n">
-        <v>1</v>
-      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr"/>
-      <c r="AV54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="n">
         <v>1</v>
       </c>
       <c r="AX54" t="inlineStr"/>
-      <c r="AY54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1</v>
-      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
       <c r="AT55" t="n">
         <v>1</v>
       </c>
       <c r="AU55" t="inlineStr"/>
-      <c r="AV55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr"/>
       <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="n">
-        <v>1</v>
-      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1</v>
-      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="n">
-        <v>1</v>
-      </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="inlineStr"/>
@@ -4933,83 +4535,79 @@
         <v>1</v>
       </c>
       <c r="AU56" t="inlineStr"/>
-      <c r="AV56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
       <c r="AX56" t="inlineStr"/>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="n">
         <v>1</v>
       </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="n">
-        <v>1</v>
-      </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="n">
-        <v>1</v>
-      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="Y57" t="n">
+        <v>1</v>
+      </c>
       <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="n">
         <v>1</v>
       </c>
-      <c r="AC57" t="inlineStr"/>
+      <c r="AC57" t="n">
+        <v>1</v>
+      </c>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK57" t="inlineStr"/>
+      <c r="AI57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="n">
+        <v>1</v>
+      </c>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="n">
         <v>1</v>
@@ -5020,17 +4618,21 @@
       <c r="AO57" t="n">
         <v>1</v>
       </c>
-      <c r="AP57" t="inlineStr"/>
+      <c r="AP57" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
+      <c r="AR57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1</v>
+      </c>
       <c r="AT57" t="n">
         <v>1</v>
       </c>
       <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="n">
         <v>1</v>
       </c>
@@ -5081,26 +4683,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -5111,11 +4713,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -5126,11 +4728,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -5141,47 +4743,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5190,13 +4792,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5205,22 +4807,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -5231,26 +4833,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -5261,17 +4863,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5280,118 +4882,118 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5400,28 +5002,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5430,28 +5032,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5460,73 +5062,73 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5535,118 +5137,118 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5655,28 +5257,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5685,13 +5287,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5700,103 +5302,103 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5805,103 +5407,103 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5910,7 +5512,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5961,13 +5563,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7236488451610756</v>
+        <v>0.0480452135902076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5976,7 +5578,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9836005200940101</v>
+        <v>0.923970689132584</v>
       </c>
     </row>
     <row r="4">
@@ -5987,11 +5589,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9919400594245864</v>
+        <v>0.9713755719266104</v>
       </c>
     </row>
     <row r="5">
@@ -6006,7 +5608,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.02944512202393543</v>
+        <v>0.9882795476812165</v>
       </c>
     </row>
     <row r="6">
@@ -6021,28 +5623,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3379200313501733</v>
+        <v>0.2186768427519216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.019924371943756</v>
+        <v>0.02961304504753536</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6051,13 +5653,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.000128715267375279</v>
+        <v>0.9517619012343312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6066,37 +5668,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.009819756833695582</v>
+        <v>0.03103757036222951</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9854519525896128</v>
+        <v>0.02262606164255063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9697213092442352</v>
+        <v>0.009919537419717617</v>
       </c>
     </row>
     <row r="12">
@@ -6111,22 +5713,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2919356424069544</v>
+        <v>0.03985495863343283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2705282056105406</v>
+        <v>0.2727472397514569</v>
       </c>
     </row>
     <row r="14">
@@ -6137,17 +5739,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9832360253465843</v>
+        <v>0.9920408852813424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -6156,58 +5758,58 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01616396171858693</v>
+        <v>0.6045886934470855</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3171434368034636</v>
+        <v>0.7744299553808749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3231492516922737</v>
+        <v>0.5444134219770391</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9722977496313732</v>
+        <v>0.1464067973612608</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -6216,43 +5818,43 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0007660256142836609</v>
+        <v>0.04797168638951029</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4064299803215199</v>
+        <v>0.9719689770943561</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.972243984629682</v>
+        <v>0.9861575538936124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -6261,28 +5863,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.971062514676838</v>
+        <v>0.9761215622283012</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.06222112502424781</v>
+        <v>0.6080449190705891</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -6291,13 +5893,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3935567930421718</v>
+        <v>0.9183482494137285</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -6306,13 +5908,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.03314984293719161</v>
+        <v>0.0009843774970048624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6321,28 +5923,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9832454958805986</v>
+        <v>0.9770068126416914</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7049491890071453</v>
+        <v>0.9433865833492565</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -6351,13 +5953,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2438854724767708</v>
+        <v>0.1671225012735697</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6366,13 +5968,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9502187297727653</v>
+        <v>0.04595591638990756</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6381,13 +5983,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8612389555238273</v>
+        <v>0.7932866971914407</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6396,13 +5998,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.688883597856947</v>
+        <v>0.9702326091571419</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6411,58 +6013,58 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6160916280380501</v>
+        <v>0.981063395932777</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6570204313912569</v>
+        <v>0.6427412609401802</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.4217016091915964</v>
+        <v>0.8225089534332006</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.6107651219857472</v>
+        <v>0.406818871150823</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6471,13 +6073,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04529355513449074</v>
+        <v>0.9863974870428261</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6486,13 +6088,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9699231361856379</v>
+        <v>0.9761264018831477</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6501,13 +6103,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9900925865097259</v>
+        <v>0.6774382023198887</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6516,13 +6118,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.04977983041324046</v>
+        <v>0.03417206025413454</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6531,13 +6133,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.000281105855101671</v>
+        <v>0.0008544659095493624</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6546,13 +6148,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02582006142861476</v>
+        <v>0.03759207044488478</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6561,13 +6163,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.8429203986253451</v>
+        <v>0.519235087159914</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6576,13 +6178,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.4218114539571146</v>
+        <v>0.9070943141593757</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6591,13 +6193,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.4218794422235871</v>
+        <v>0.02738223305123655</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6606,43 +6208,43 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6186603651348327</v>
+        <v>0.03490443108455531</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0008985726701535524</v>
+        <v>0.1705719290141012</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.6031843924823835</v>
+        <v>0.9753741756085708</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6651,28 +6253,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.001089791885353786</v>
+        <v>0.883570915365044</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.005650178897306946</v>
+        <v>0.04473423869177687</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6681,22 +6283,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.988234166435954</v>
+        <v>0.5700099133338734</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.8287515955462086</v>
+        <v>0.9650500572503548</v>
       </c>
     </row>
   </sheetData>
